--- a/data/trans_orig/P5701-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5701-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>261328</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>236847</v>
+        <v>236228</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>291267</v>
+        <v>283244</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3765466114212569</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3412723511551466</v>
+        <v>0.3403803475486258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4196863504343207</v>
+        <v>0.4081250140667967</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>256</v>
@@ -765,19 +765,19 @@
         <v>246067</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>222136</v>
+        <v>221554</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270306</v>
+        <v>269672</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3574727705801896</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3227079623009564</v>
+        <v>0.3218618742453991</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3926865783825339</v>
+        <v>0.3917656141929935</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>511</v>
@@ -786,19 +786,19 @@
         <v>507395</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>474311</v>
+        <v>471318</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>543412</v>
+        <v>539370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.367048746896166</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.343116374849621</v>
+        <v>0.3409506577479089</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3931036596912176</v>
+        <v>0.3901799440091055</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>218456</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>193431</v>
+        <v>195826</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>245223</v>
+        <v>243160</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3147727755799684</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2787141576253371</v>
+        <v>0.2821658520471778</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3533413400213917</v>
+        <v>0.3503681582311639</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>221</v>
@@ -836,19 +836,19 @@
         <v>218308</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>193609</v>
+        <v>194951</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>242874</v>
+        <v>243303</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3171469675191513</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2812654268938465</v>
+        <v>0.2832151728867837</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3528345594698806</v>
+        <v>0.3534570721113045</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>440</v>
@@ -857,19 +857,19 @@
         <v>436765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>404229</v>
+        <v>404171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>470892</v>
+        <v>471980</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3159550101169354</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2924186742556598</v>
+        <v>0.2923766172673208</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3406424823783882</v>
+        <v>0.3414297913700297</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>181563</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>160031</v>
+        <v>159429</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>207025</v>
+        <v>204852</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2616139429342788</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2305887573289267</v>
+        <v>0.2297207637356695</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2983024615809319</v>
+        <v>0.2951710927935601</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>163</v>
@@ -907,19 +907,19 @@
         <v>163993</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>142729</v>
+        <v>140139</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>188286</v>
+        <v>185932</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2382401282376859</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2073495581893564</v>
+        <v>0.2035866457687669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2735316952890192</v>
+        <v>0.2701120265672144</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>342</v>
@@ -928,19 +928,19 @@
         <v>345556</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>313318</v>
+        <v>315314</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>377896</v>
+        <v>377930</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2499748961752834</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2266541316893595</v>
+        <v>0.2280981333435029</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2733696217749143</v>
+        <v>0.2733945183741562</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>30043</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20121</v>
+        <v>20686</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>43478</v>
+        <v>43242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04328912438942078</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02899260037336367</v>
+        <v>0.02980594672527629</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06264692532647238</v>
+        <v>0.06230682935159878</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>52</v>
@@ -978,19 +978,19 @@
         <v>54359</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>40055</v>
+        <v>41789</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>70731</v>
+        <v>71635</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07896949609531591</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0581895993471291</v>
+        <v>0.06070947216618101</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1027539123835427</v>
+        <v>0.1040672299197852</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>80</v>
@@ -999,19 +999,19 @@
         <v>84402</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>67478</v>
+        <v>67650</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>105000</v>
+        <v>104187</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06105625055405935</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04881328269503046</v>
+        <v>0.0489382243553096</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07595701976914224</v>
+        <v>0.07536910648256165</v>
       </c>
     </row>
     <row r="8">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>9379</v>
+        <v>9317</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003777545675075109</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01351444330918143</v>
+        <v>0.01342533859642189</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1049,19 +1049,19 @@
         <v>5624</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1589</v>
+        <v>1707</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13513</v>
+        <v>13899</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.008170637567657299</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.002308244931616591</v>
+        <v>0.002479828367270291</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01963125452894156</v>
+        <v>0.02019230733556486</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>6</v>
@@ -1070,19 +1070,19 @@
         <v>8246</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3146</v>
+        <v>3266</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>18423</v>
+        <v>17084</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.005965096257555804</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002275631728622319</v>
+        <v>0.0023623047780747</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01332716420828086</v>
+        <v>0.01235880151686475</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>442717</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>409398</v>
+        <v>411336</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>471088</v>
+        <v>474420</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4603001137632149</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4256586452065697</v>
+        <v>0.427673492568387</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4897987918790044</v>
+        <v>0.4932626561826147</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>376</v>
@@ -1195,19 +1195,19 @@
         <v>390729</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>357040</v>
+        <v>359964</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>421948</v>
+        <v>420528</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4034820176673676</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3686934469595085</v>
+        <v>0.3717129672293243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4357198765900335</v>
+        <v>0.4342533816101281</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>785</v>
@@ -1216,19 +1216,19 @@
         <v>833446</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>788789</v>
+        <v>787537</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>876895</v>
+        <v>878691</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4317940275694951</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4086581600518019</v>
+        <v>0.4080094435540391</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4543045245580257</v>
+        <v>0.4552346615261527</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>270719</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>243664</v>
+        <v>244638</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>301088</v>
+        <v>301337</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2814707887054201</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2533411418094882</v>
+        <v>0.2543542478003011</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3130459467684423</v>
+        <v>0.3133053113849747</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>276</v>
@@ -1266,19 +1266,19 @@
         <v>295634</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>267530</v>
+        <v>265616</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>326838</v>
+        <v>328032</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.305282912550456</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2762618749810776</v>
+        <v>0.274285150688486</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.337505537132255</v>
+        <v>0.338738078172878</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>529</v>
@@ -1287,19 +1287,19 @@
         <v>566352</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>527878</v>
+        <v>525205</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>609201</v>
+        <v>614869</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2934175187337734</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.273484702222437</v>
+        <v>0.2720998476390962</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3156164026465197</v>
+        <v>0.3185532881660136</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>192239</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>167951</v>
+        <v>166626</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>218291</v>
+        <v>218654</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1998743040183992</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1746213509203931</v>
+        <v>0.1732434119477886</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2269606997507207</v>
+        <v>0.2273383560872667</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>186</v>
@@ -1337,19 +1337,19 @@
         <v>202184</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>177118</v>
+        <v>177100</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>231425</v>
+        <v>228887</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2087828883650865</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1828988438089766</v>
+        <v>0.1828807954697757</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.238978305149281</v>
+        <v>0.2363578163902244</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>371</v>
@@ -1358,19 +1358,19 @@
         <v>394423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>360944</v>
+        <v>361298</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>431740</v>
+        <v>433359</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2043438109308149</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.186998719569707</v>
+        <v>0.1871821420940591</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2236772634821479</v>
+        <v>0.2245158342020993</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>39897</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>28658</v>
+        <v>28419</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>54401</v>
+        <v>54364</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04148186365637612</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02979672413735326</v>
+        <v>0.02954802092529157</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05656176528980301</v>
+        <v>0.05652313816129031</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>60</v>
@@ -1408,19 +1408,19 @@
         <v>66529</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>51038</v>
+        <v>50993</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>84594</v>
+        <v>85352</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.06870012185416034</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0527040040851855</v>
+        <v>0.05265726712581435</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08735539420287379</v>
+        <v>0.08813765889497627</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>97</v>
@@ -1429,19 +1429,19 @@
         <v>106426</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>86592</v>
+        <v>86131</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>127540</v>
+        <v>128300</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.05513747810920998</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04486161192544184</v>
+        <v>0.04462293019780687</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06607621834154703</v>
+        <v>0.06646979197633884</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>16228</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7829</v>
+        <v>8696</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>27004</v>
+        <v>27618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01687292985658962</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.008140321705657894</v>
+        <v>0.009041657726458811</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02807700031455062</v>
+        <v>0.02871491451824542</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -1479,19 +1479,19 @@
         <v>13317</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>6804</v>
+        <v>6895</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>24629</v>
+        <v>24834</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01375205956292961</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.007026587743906362</v>
+        <v>0.007119899133944925</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02543269607394869</v>
+        <v>0.02564436781483104</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>22</v>
@@ -1500,19 +1500,19 @@
         <v>29546</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18302</v>
+        <v>18903</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>43992</v>
+        <v>43536</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01530716465670652</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.00948170580921333</v>
+        <v>0.009793292637601118</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02279124995075523</v>
+        <v>0.02255506046218982</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>356528</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>328534</v>
+        <v>327459</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>380946</v>
+        <v>383121</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5254587593603828</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4842002008854419</v>
+        <v>0.4826161571282184</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.561446130347972</v>
+        <v>0.5646506421790535</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>323</v>
@@ -1625,19 +1625,19 @@
         <v>314914</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>286871</v>
+        <v>288890</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>342515</v>
+        <v>340371</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4605074587069298</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4194988934391761</v>
+        <v>0.4224517015296001</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5008697911111634</v>
+        <v>0.4977334032250554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>657</v>
@@ -1646,19 +1646,19 @@
         <v>671442</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>634901</v>
+        <v>634817</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>707806</v>
+        <v>704955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4928560021158856</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4660333622904364</v>
+        <v>0.4659719976385299</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5195481840843561</v>
+        <v>0.5174551770549084</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>169133</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146792</v>
+        <v>146671</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>194813</v>
+        <v>192245</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2492715348311148</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2163444938839389</v>
+        <v>0.2161672804989622</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2871189619312389</v>
+        <v>0.2833343917404885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>192</v>
@@ -1696,19 +1696,19 @@
         <v>182437</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>161384</v>
+        <v>159286</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206962</v>
+        <v>205166</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.266783362179685</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2359968902711438</v>
+        <v>0.2329288745279581</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3026459303300403</v>
+        <v>0.3000203005306316</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>358</v>
@@ -1717,19 +1717,19 @@
         <v>351570</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>316937</v>
+        <v>320223</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>381640</v>
+        <v>385379</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.258061718402637</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.232640054806387</v>
+        <v>0.2350520134308766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2801339344151489</v>
+        <v>0.2828780230212922</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>102745</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>86011</v>
+        <v>85612</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>123692</v>
+        <v>123305</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1514277115272957</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1267647468485243</v>
+        <v>0.1261760389664366</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1822991980700022</v>
+        <v>0.1817289299003471</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>110</v>
@@ -1767,19 +1767,19 @@
         <v>110942</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>91796</v>
+        <v>93087</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>129273</v>
+        <v>132653</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1622341725716998</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1342364271774592</v>
+        <v>0.136123306544167</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1890399549910709</v>
+        <v>0.1939825122641104</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>211</v>
@@ -1788,19 +1788,19 @@
         <v>213687</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>189615</v>
+        <v>187482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>243996</v>
+        <v>240295</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.156852089831629</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1391819758203753</v>
+        <v>0.1376168627466025</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1790993269924239</v>
+        <v>0.1763824348157899</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>35249</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>24149</v>
+        <v>24274</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>51209</v>
+        <v>51639</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05195111545881956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03559126921834725</v>
+        <v>0.03577547309728887</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.075472201010069</v>
+        <v>0.0761067885757698</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>57</v>
@@ -1838,19 +1838,19 @@
         <v>58188</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>43920</v>
+        <v>44769</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>73472</v>
+        <v>74907</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08509016534398335</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06422495508261714</v>
+        <v>0.06546710944190312</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1074396176416499</v>
+        <v>0.1095390359614116</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -1859,19 +1859,19 @@
         <v>93437</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>76121</v>
+        <v>75390</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>114577</v>
+        <v>113989</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06858549210485272</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05587450668777252</v>
+        <v>0.05533787772505842</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08410210997602729</v>
+        <v>0.08367072993842803</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>14853</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7613</v>
+        <v>7537</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>25830</v>
+        <v>25602</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02189087882238717</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01121986630983222</v>
+        <v>0.01110762920316881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03806816733700276</v>
+        <v>0.03773338401599054</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1909,19 +1909,19 @@
         <v>17359</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9421</v>
+        <v>9788</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>29370</v>
+        <v>28976</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02538484119770209</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01377715530035008</v>
+        <v>0.0143131489156227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04294895316621859</v>
+        <v>0.04237250650132454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -1930,19 +1930,19 @@
         <v>32212</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>21413</v>
+        <v>21062</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47326</v>
+        <v>48607</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02364469754499566</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01571746112125505</v>
+        <v>0.01545992167019806</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03473865790385648</v>
+        <v>0.03567884816513667</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>413765</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>382705</v>
+        <v>385200</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>444627</v>
+        <v>440066</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4391377395641744</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4061726535913253</v>
+        <v>0.4088204753908106</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4718916989183211</v>
+        <v>0.4670510756472805</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>448</v>
@@ -2055,19 +2055,19 @@
         <v>458377</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>426886</v>
+        <v>427358</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>493151</v>
+        <v>490572</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.441336473359164</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4110153894129258</v>
+        <v>0.411470324027736</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4748174194549714</v>
+        <v>0.4723343335374013</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>889</v>
@@ -2076,19 +2076,19 @@
         <v>872143</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>831723</v>
+        <v>827248</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>917297</v>
+        <v>916369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4402906030530946</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4198855056595575</v>
+        <v>0.4176260951494222</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4630860693733916</v>
+        <v>0.4626175518424</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>251834</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>227044</v>
+        <v>225032</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>281739</v>
+        <v>276384</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2672767562200917</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2409670821522401</v>
+        <v>0.2388317027723954</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2990159834472808</v>
+        <v>0.2933317062422929</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>257</v>
@@ -2126,19 +2126,19 @@
         <v>267625</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>240515</v>
+        <v>238314</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>299222</v>
+        <v>296028</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2576759219073367</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2315732735100991</v>
+        <v>0.2294546068373743</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2880981903242042</v>
+        <v>0.2850228582370523</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>521</v>
@@ -2147,19 +2147,19 @@
         <v>519459</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>477924</v>
+        <v>482454</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>559213</v>
+        <v>560246</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2622427446596333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2412739181697682</v>
+        <v>0.2435611360455018</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2823117974439597</v>
+        <v>0.2828332544502337</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>186431</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>162933</v>
+        <v>162395</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>209019</v>
+        <v>209254</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1978634884114668</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1729237881543212</v>
+        <v>0.1723533342315187</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2218365003178436</v>
+        <v>0.2220861265492563</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>168</v>
@@ -2197,19 +2197,19 @@
         <v>175534</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>152273</v>
+        <v>151545</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>201829</v>
+        <v>199876</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1690078934744287</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1466115667483986</v>
+        <v>0.1459107191005604</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1943256870051622</v>
+        <v>0.1924455402085568</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>367</v>
@@ -2218,19 +2218,19 @@
         <v>361965</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>329658</v>
+        <v>329236</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>397697</v>
+        <v>395217</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1827336159686132</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1664239131942734</v>
+        <v>0.1662109712606418</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2007724678266667</v>
+        <v>0.1995205303026824</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>72311</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>58238</v>
+        <v>56459</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>89989</v>
+        <v>89598</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07674556033189726</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06180896465797257</v>
+        <v>0.05992101254851781</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.09550763645756648</v>
+        <v>0.0950918065850072</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>101</v>
@@ -2268,19 +2268,19 @@
         <v>110377</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>90675</v>
+        <v>90259</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>130571</v>
+        <v>133523</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.106273293583751</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08730434257470054</v>
+        <v>0.08690320254183501</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1257165056233791</v>
+        <v>0.1285593382685748</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>176</v>
@@ -2289,19 +2289,19 @@
         <v>182688</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>158475</v>
+        <v>157631</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>212401</v>
+        <v>211731</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.09222785548477658</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.08000428707495767</v>
+        <v>0.07957792919246076</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1072282226927084</v>
+        <v>0.1068896507795978</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>17880</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>10153</v>
+        <v>10003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>28993</v>
+        <v>29088</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01897645547236984</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01077574656719352</v>
+        <v>0.01061586505505158</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03077070651724247</v>
+        <v>0.03087161493822951</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -2339,19 +2339,19 @@
         <v>26699</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17851</v>
+        <v>17183</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>39902</v>
+        <v>39924</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02570641767531963</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01718706141425666</v>
+        <v>0.01654397830235415</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03841903429301175</v>
+        <v>0.03843931300519024</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -2360,19 +2360,19 @@
         <v>44579</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>31462</v>
+        <v>31562</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>61748</v>
+        <v>61070</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02250518083388228</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01588311344012321</v>
+        <v>0.01593390921178961</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03117249212713552</v>
+        <v>0.03083037992198709</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>1474338</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1416693</v>
+        <v>1413009</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1529549</v>
+        <v>1533413</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4499676159835151</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.4323741905849952</v>
+        <v>0.4312500587457626</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4668180520045051</v>
+        <v>0.4679971368025331</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1403</v>
@@ -2485,19 +2485,19 @@
         <v>1410087</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1352106</v>
+        <v>1347491</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1465668</v>
+        <v>1463256</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4172846806334117</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4001265132106425</v>
+        <v>0.39876085393144</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4337326824525874</v>
+        <v>0.4330187060014079</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2842</v>
@@ -2506,19 +2506,19 @@
         <v>2884426</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2795631</v>
+        <v>2792922</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2965019</v>
+        <v>2961713</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4333741077157011</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4200329785156918</v>
+        <v>0.4196259861352931</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.445482913052064</v>
+        <v>0.4449862833304004</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>910142</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>861355</v>
+        <v>859526</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>960002</v>
+        <v>962099</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2777749938654606</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.26288533428562</v>
+        <v>0.2623271146453343</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2929921981539662</v>
+        <v>0.2936324167260622</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>946</v>
@@ -2556,19 +2556,19 @@
         <v>964005</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>913027</v>
+        <v>914523</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1014229</v>
+        <v>1017722</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2852763464838765</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.27019059387323</v>
+        <v>0.2706332876351518</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3001390543936625</v>
+        <v>0.3011726056533737</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1848</v>
@@ -2577,19 +2577,19 @@
         <v>1874147</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1801847</v>
+        <v>1803947</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1950759</v>
+        <v>1951255</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2815835182638996</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2707206751520511</v>
+        <v>0.2710362666490808</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2930942366392527</v>
+        <v>0.2931687159901833</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>662979</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>619247</v>
+        <v>616455</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>712670</v>
+        <v>707071</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2023409201592923</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1889940846451402</v>
+        <v>0.1881420412491877</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2175067660024533</v>
+        <v>0.2157977341265747</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>627</v>
@@ -2627,19 +2627,19 @@
         <v>652653</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>609226</v>
+        <v>611809</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>698533</v>
+        <v>698732</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1931384060743893</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1802873015334262</v>
+        <v>0.1810516188905461</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2067155779418379</v>
+        <v>0.2067745860644133</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>1291</v>
@@ -2648,19 +2648,19 @@
         <v>1315632</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1254938</v>
+        <v>1244617</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1384391</v>
+        <v>1385024</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1976686962015373</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1885496403423734</v>
+        <v>0.1869990339607274</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2079995319999101</v>
+        <v>0.2080945912692034</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>177501</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>150408</v>
+        <v>153312</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>205566</v>
+        <v>208721</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05417328061014764</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04590442286594307</v>
+        <v>0.04679081189251444</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06273855917036146</v>
+        <v>0.06370173091160367</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>270</v>
@@ -2698,19 +2698,19 @@
         <v>289452</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>260889</v>
+        <v>257834</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>327698</v>
+        <v>325136</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.08565712760140141</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.07720429003700693</v>
+        <v>0.0763004372798973</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.09697499408076937</v>
+        <v>0.09621698931526211</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>439</v>
@@ -2719,19 +2719,19 @@
         <v>466953</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>425998</v>
+        <v>430048</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>508506</v>
+        <v>511919</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.07015799770350718</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06400460153029289</v>
+        <v>0.06461309676469754</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.07640107523312124</v>
+        <v>0.07691388601937448</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>51583</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>37093</v>
+        <v>36494</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>70612</v>
+        <v>69964</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01574318938158427</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01132072771979557</v>
+        <v>0.01113787982928677</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02155083125755779</v>
+        <v>0.02135302590942135</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>51</v>
@@ -2769,19 +2769,19 @@
         <v>63000</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>47871</v>
+        <v>47275</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>82864</v>
+        <v>84336</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01864343920692101</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01416641100737658</v>
+        <v>0.0139900631853515</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02452183193248826</v>
+        <v>0.02495744599225062</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>91</v>
@@ -2790,19 +2790,19 @@
         <v>114583</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>92579</v>
+        <v>90717</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>140892</v>
+        <v>137264</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01721568011535489</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01390957311646173</v>
+        <v>0.01362988017873741</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02116851560269581</v>
+        <v>0.02062334091001752</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>422167</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>396494</v>
+        <v>394232</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>449898</v>
+        <v>449823</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.6009464007574357</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5644007291409076</v>
+        <v>0.5611807998589814</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6404210545827729</v>
+        <v>0.6403136746559872</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>365</v>
@@ -3155,19 +3155,19 @@
         <v>387677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>359709</v>
+        <v>360274</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>413482</v>
+        <v>413836</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5561682497307302</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5160442417727066</v>
+        <v>0.5168552593289765</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5931886876363395</v>
+        <v>0.593696425841491</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>771</v>
@@ -3176,19 +3176,19 @@
         <v>809844</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>770721</v>
+        <v>774575</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>844552</v>
+        <v>850796</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5786445684401399</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5506901558376948</v>
+        <v>0.5534441808855214</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6034438843209563</v>
+        <v>0.6079049547141907</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>155196</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135570</v>
+        <v>132256</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>180722</v>
+        <v>179420</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2209180025499066</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1929811473019906</v>
+        <v>0.1882635596379473</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2572541560105471</v>
+        <v>0.2554006846412522</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>160</v>
@@ -3226,19 +3226,19 @@
         <v>171415</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>147480</v>
+        <v>149732</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>194393</v>
+        <v>195867</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2459145112128598</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2115772893100104</v>
+        <v>0.21480769550885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2788791230498909</v>
+        <v>0.2809935986554638</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>307</v>
@@ -3247,19 +3247,19 @@
         <v>326610</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>298047</v>
+        <v>297960</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>362096</v>
+        <v>363203</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2333675551092907</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.212958284382259</v>
+        <v>0.2128962226603959</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2587220916204411</v>
+        <v>0.2595130825275446</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>94631</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76638</v>
+        <v>78888</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>114497</v>
+        <v>115301</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1347057211628002</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1090925080505735</v>
+        <v>0.1122950328834033</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1629835999582029</v>
+        <v>0.1641279155033626</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>73</v>
@@ -3297,19 +3297,19 @@
         <v>78575</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>63146</v>
+        <v>62958</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>95688</v>
+        <v>97157</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1127253119235679</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09059009268135411</v>
+        <v>0.09032003794270373</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1372753068700248</v>
+        <v>0.1393830498633234</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>162</v>
@@ -3318,19 +3318,19 @@
         <v>173206</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>150537</v>
+        <v>148436</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>201544</v>
+        <v>201312</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1237583419191476</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1075606714670809</v>
+        <v>0.1060594452400809</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1440055472934825</v>
+        <v>0.1438400542279861</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>22781</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14430</v>
+        <v>14488</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35189</v>
+        <v>34211</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03242838466563109</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0205402549254743</v>
+        <v>0.02062337309228871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05009090169901775</v>
+        <v>0.04869801398035287</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>45</v>
@@ -3368,19 +3368,19 @@
         <v>51429</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>38269</v>
+        <v>38905</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68377</v>
+        <v>68833</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07378070140533889</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05490145111844632</v>
+        <v>0.05581362894380672</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0980947805317661</v>
+        <v>0.09874858101810044</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>68</v>
@@ -3389,19 +3389,19 @@
         <v>74210</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>57960</v>
+        <v>55865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>93301</v>
+        <v>93492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05302397453959996</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04141343188426934</v>
+        <v>0.03991595540235762</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06666515972831839</v>
+        <v>0.06680101850638971</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>7729</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3585</v>
+        <v>3095</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15076</v>
+        <v>14851</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01100149086422651</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005102755876354056</v>
+        <v>0.004405833191833661</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02146102620742824</v>
+        <v>0.02113995668886893</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -3439,19 +3439,19 @@
         <v>7954</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3562</v>
+        <v>3223</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>15932</v>
+        <v>15787</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01141122572750324</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.005109618661896661</v>
+        <v>0.004623998046960093</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02285685324698295</v>
+        <v>0.02264849249027099</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>15</v>
@@ -3460,19 +3460,19 @@
         <v>15683</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8800</v>
+        <v>9456</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25043</v>
+        <v>25725</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01120555999182175</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006287363918899777</v>
+        <v>0.006756531336506716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01789333119354779</v>
+        <v>0.01838085224008305</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>569828</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>538639</v>
+        <v>536444</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>603556</v>
+        <v>601359</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5626487036364333</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5318527067292581</v>
+        <v>0.5296848592322349</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5959513101339177</v>
+        <v>0.5937820648342746</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>514</v>
@@ -3585,19 +3585,19 @@
         <v>559873</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>524715</v>
+        <v>528279</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>588928</v>
+        <v>594910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5424161440597077</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5083539331076518</v>
+        <v>0.5118073059759243</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.570564689924058</v>
+        <v>0.5763599804350782</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1043</v>
@@ -3606,19 +3606,19 @@
         <v>1129701</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1080604</v>
+        <v>1084254</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1181927</v>
+        <v>1176241</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5524363353643205</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5284272142005727</v>
+        <v>0.5302118951823094</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.577975119769108</v>
+        <v>0.5751947206286347</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>237830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>210852</v>
+        <v>211477</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>265985</v>
+        <v>270025</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2348338694829594</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2081957802014073</v>
+        <v>0.2088123439670891</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2626338463527167</v>
+        <v>0.2666225238460158</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>248</v>
@@ -3656,19 +3656,19 @@
         <v>273529</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>245914</v>
+        <v>245352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>303271</v>
+        <v>305469</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2650002684027353</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2382467403156947</v>
+        <v>0.2377015039999784</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2938147983678824</v>
+        <v>0.2959446561485621</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>467</v>
@@ -3677,19 +3677,19 @@
         <v>511359</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>469267</v>
+        <v>472013</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>555037</v>
+        <v>551585</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2500603352222031</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2294767857736427</v>
+        <v>0.2308197396476973</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2714194113904478</v>
+        <v>0.2697312706109465</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>142553</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>118997</v>
+        <v>119834</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>166090</v>
+        <v>165419</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1407573717175526</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1174979473903093</v>
+        <v>0.1183245997137335</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1639978268532708</v>
+        <v>0.1633351380335746</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -3727,19 +3727,19 @@
         <v>140268</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>118334</v>
+        <v>118198</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>164784</v>
+        <v>164710</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.135894561128894</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1146442984575795</v>
+        <v>0.1145123192165848</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1596455198811388</v>
+        <v>0.1595744187345979</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>258</v>
@@ -3748,19 +3748,19 @@
         <v>282822</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>251102</v>
+        <v>247933</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>317881</v>
+        <v>313203</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1383028719603376</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1227918538189086</v>
+        <v>0.1212419841488076</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1554475287418974</v>
+        <v>0.1531597313985804</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>56498</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>41614</v>
+        <v>41626</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>72919</v>
+        <v>74221</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05578602684462891</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04108939498164712</v>
+        <v>0.04110195812455959</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07200066203098553</v>
+        <v>0.07328602151392846</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>39</v>
@@ -3798,19 +3798,19 @@
         <v>42974</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>31381</v>
+        <v>31620</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>58431</v>
+        <v>57384</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04163361169363761</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0304024953988527</v>
+        <v>0.03063435836212704</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.05660924131556209</v>
+        <v>0.05559516252486819</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>85</v>
@@ -3819,19 +3819,19 @@
         <v>99471</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>78989</v>
+        <v>80361</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>120884</v>
+        <v>124192</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04864260661083844</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03862628949913013</v>
+        <v>0.03929716534139468</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05911335487837659</v>
+        <v>0.06073111140812058</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>6050</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2044</v>
+        <v>2050</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12220</v>
+        <v>13011</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.005974028318425813</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002018547820980382</v>
+        <v>0.002023875121987683</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01206651420362933</v>
+        <v>0.01284722795448333</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>12</v>
@@ -3869,19 +3869,19 @@
         <v>15540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>9131</v>
+        <v>8301</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>28368</v>
+        <v>26394</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01505541471502542</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.008845878130797255</v>
+        <v>0.008042156314076827</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02748329583602582</v>
+        <v>0.02557143232645468</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>18</v>
@@ -3890,19 +3890,19 @@
         <v>21590</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>12145</v>
+        <v>12332</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>33347</v>
+        <v>34976</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01055785084230049</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005938920553236373</v>
+        <v>0.00603033181763906</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01630705384018022</v>
+        <v>0.01710387041525734</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>412226</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>383048</v>
+        <v>383200</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>439672</v>
+        <v>441228</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5465621718657194</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5078748755233766</v>
+        <v>0.5080771898572964</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5829511218251605</v>
+        <v>0.5850144514737465</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>371</v>
@@ -4015,19 +4015,19 @@
         <v>408583</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>382438</v>
+        <v>378724</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>438192</v>
+        <v>435891</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5257292303439983</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.492087438739726</v>
+        <v>0.4873085431767198</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.563827921929587</v>
+        <v>0.5608661266719223</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>751</v>
@@ -4036,19 +4036,19 @@
         <v>820810</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>778274</v>
+        <v>780398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>860698</v>
+        <v>864592</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5359895468060294</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5082135810834613</v>
+        <v>0.5096004686278103</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5620364895468829</v>
+        <v>0.5645792825824989</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>171911</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>146517</v>
+        <v>150362</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>196881</v>
+        <v>197756</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.227932881664993</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1942642539592215</v>
+        <v>0.1993622131558415</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2610398238123</v>
+        <v>0.2622002825614462</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>168</v>
@@ -4086,19 +4086,19 @@
         <v>182533</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>158511</v>
+        <v>157873</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>206799</v>
+        <v>207179</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2348670233511472</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2039577274557377</v>
+        <v>0.2031368384642787</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2660910077371206</v>
+        <v>0.2665798557677472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>322</v>
@@ -4107,19 +4107,19 @@
         <v>354443</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>322318</v>
+        <v>321772</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>387033</v>
+        <v>389736</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2314519276951486</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2104740547452643</v>
+        <v>0.2101171639608831</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2527331030104862</v>
+        <v>0.2544980452365035</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>110399</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>91282</v>
+        <v>90847</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>134078</v>
+        <v>131566</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1463753417915894</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1210294708917382</v>
+        <v>0.1204526399043462</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1777704911920077</v>
+        <v>0.174441003357287</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>101</v>
@@ -4157,19 +4157,19 @@
         <v>112464</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>95218</v>
+        <v>93666</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>134222</v>
+        <v>134496</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.144709290249902</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1225185252662404</v>
+        <v>0.1205219064241851</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1727049791413389</v>
+        <v>0.173057401827298</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>201</v>
@@ -4178,19 +4178,19 @@
         <v>222863</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>194646</v>
+        <v>191892</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>255140</v>
+        <v>251737</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1455298280525903</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1271038021968318</v>
+        <v>0.1253055517253671</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.166606516574772</v>
+        <v>0.1643847852645502</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>46407</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>34289</v>
+        <v>33510</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>63313</v>
+        <v>61211</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0615299475968166</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04546355423699316</v>
+        <v>0.04442973775679034</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08394576213567966</v>
+        <v>0.08115856376966263</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>54</v>
@@ -4228,19 +4228,19 @@
         <v>60880</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>47694</v>
+        <v>46515</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>78663</v>
+        <v>79027</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07833488686131231</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06136834520140545</v>
+        <v>0.05985087533225094</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1012166240692188</v>
+        <v>0.1016845505213099</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>95</v>
@@ -4249,19 +4249,19 @@
         <v>107287</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>87515</v>
+        <v>89019</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>130046</v>
+        <v>131154</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.07005837944640106</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05714710945419025</v>
+        <v>0.0581296368795692</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08492047869902691</v>
+        <v>0.08564367550014283</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>13274</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6680</v>
+        <v>6738</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>23469</v>
+        <v>22987</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01759965708088159</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.008856511942726526</v>
+        <v>0.008933957293728936</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03111721817638198</v>
+        <v>0.03047814680192533</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>11</v>
@@ -4299,19 +4299,19 @@
         <v>12714</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7199</v>
+        <v>7198</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>24315</v>
+        <v>22988</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01635956919364015</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009263682520274747</v>
+        <v>0.009261272190027363</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03128587823563204</v>
+        <v>0.02957944030386256</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>22</v>
@@ -4320,19 +4320,19 @@
         <v>25988</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>16854</v>
+        <v>16236</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37954</v>
+        <v>39019</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0169703179998307</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01100565036388688</v>
+        <v>0.01060230971783327</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02478410042516708</v>
+        <v>0.02547976875633213</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>480806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>448784</v>
+        <v>450572</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>514198</v>
+        <v>514941</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5083490723528842</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4744920826487258</v>
+        <v>0.4763826814007159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5436537376930834</v>
+        <v>0.5444390840235628</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>494</v>
@@ -4445,19 +4445,19 @@
         <v>513383</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>478304</v>
+        <v>478958</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>544762</v>
+        <v>544015</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4890471498573548</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4556306581309078</v>
+        <v>0.4562540946749357</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5189389290502323</v>
+        <v>0.5182270719535941</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>958</v>
@@ -4466,19 +4466,19 @@
         <v>994189</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>948146</v>
+        <v>952401</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1037048</v>
+        <v>1038127</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4981954256543897</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4751227544544463</v>
+        <v>0.4772551730385126</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5196724644279925</v>
+        <v>0.5202127368793816</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>262506</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>232906</v>
+        <v>233743</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>292457</v>
+        <v>292552</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2775435920294974</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2462481320457434</v>
+        <v>0.2471332059643134</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.309210131968208</v>
+        <v>0.3093104427763579</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>287</v>
@@ -4516,19 +4516,19 @@
         <v>300449</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>269127</v>
+        <v>271424</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>328556</v>
+        <v>330377</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.286206841405736</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2563692559529689</v>
+        <v>0.258557360424711</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3129815481595556</v>
+        <v>0.3147164198819034</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>541</v>
@@ -4537,19 +4537,19 @@
         <v>562955</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>525021</v>
+        <v>524868</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>605492</v>
+        <v>606400</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2821008361821279</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2630917841513168</v>
+        <v>0.2630149870470926</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3034163016938375</v>
+        <v>0.3038716053810907</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>148998</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>127761</v>
+        <v>127139</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>174062</v>
+        <v>172641</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1575337200386539</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.135079821588148</v>
+        <v>0.134422614722785</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1840332149760809</v>
+        <v>0.1825308573741014</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>137</v>
@@ -4587,19 +4587,19 @@
         <v>145873</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>124478</v>
+        <v>122354</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>171003</v>
+        <v>170433</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1389578613504357</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.118577138538444</v>
+        <v>0.1165536687853969</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1628965284139347</v>
+        <v>0.1623541478227679</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>276</v>
@@ -4608,19 +4608,19 @@
         <v>294871</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>260366</v>
+        <v>263307</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>326325</v>
+        <v>328075</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1477620143298048</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1304714298903029</v>
+        <v>0.1319452114957579</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1635235626141497</v>
+        <v>0.1644006766177366</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>43085</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>31282</v>
+        <v>31293</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>58068</v>
+        <v>57723</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04555331130826244</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03307414759801938</v>
+        <v>0.0330855067719042</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0613940009581164</v>
+        <v>0.06103016738610248</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>69</v>
@@ -4658,19 +4658,19 @@
         <v>75247</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>60430</v>
+        <v>59606</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>95199</v>
+        <v>93670</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07167972432309348</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05756546070481255</v>
+        <v>0.05678009897932299</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09068600568691185</v>
+        <v>0.08922947994976892</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>111</v>
@@ -4679,19 +4679,19 @@
         <v>118332</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>97566</v>
+        <v>99602</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>140666</v>
+        <v>141946</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05929693541166384</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04889088077499977</v>
+        <v>0.04991125851378579</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07048869873920956</v>
+        <v>0.0711304007366801</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>10423</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4973</v>
+        <v>4932</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19327</v>
+        <v>20188</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01102030427070209</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.005258191949547781</v>
+        <v>0.005214386762368073</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02043398390612571</v>
+        <v>0.02134470042305039</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>14</v>
@@ -4729,19 +4729,19 @@
         <v>14810</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>8258</v>
+        <v>8432</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>24220</v>
+        <v>23950</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01410842306338001</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007866140240643171</v>
+        <v>0.008032682730694221</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0230720493901165</v>
+        <v>0.02281510239436774</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>23</v>
@@ -4750,19 +4750,19 @@
         <v>25234</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>16269</v>
+        <v>15832</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>36756</v>
+        <v>37209</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01264478842201373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.00815251408360625</v>
+        <v>0.007933282297564693</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01841847292555505</v>
+        <v>0.01864563859147853</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>1885028</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1820840</v>
+        <v>1829124</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1944095</v>
+        <v>1952147</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5519362954148147</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5331419018110045</v>
+        <v>0.5355675778546581</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5692312377950688</v>
+        <v>0.5715887768237283</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1744</v>
@@ -4875,19 +4875,19 @@
         <v>1869517</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1797142</v>
+        <v>1808053</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1926426</v>
+        <v>1931608</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.5257106796916199</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.5053589174636042</v>
+        <v>0.5084271704280297</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5417136971491208</v>
+        <v>0.5431710000936585</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>3523</v>
@@ -4896,19 +4896,19 @@
         <v>3754545</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3675004</v>
+        <v>3670249</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3835291</v>
+        <v>3838982</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5385585212177151</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.5271490501926503</v>
+        <v>0.5264669593151998</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5501409291384064</v>
+        <v>0.550670336537685</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>827443</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>775254</v>
+        <v>778268</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>882225</v>
+        <v>883839</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2422753481407022</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2269943434764367</v>
+        <v>0.2278769405400958</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2583154197112161</v>
+        <v>0.2587880730808325</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>863</v>
@@ -4946,19 +4946,19 @@
         <v>927925</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>878678</v>
+        <v>875131</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>985945</v>
+        <v>982475</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.260933914021427</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2470855070267762</v>
+        <v>0.2460880323565933</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2772489932333142</v>
+        <v>0.276273483920872</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1637</v>
@@ -4967,19 +4967,19 @@
         <v>1755368</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1686516</v>
+        <v>1680239</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1835834</v>
+        <v>1830053</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2517931449325342</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2419168730060394</v>
+        <v>0.2410164674767557</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2633352244557109</v>
+        <v>0.2625060812775197</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>496582</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>454862</v>
+        <v>449468</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>539375</v>
+        <v>537052</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1453992044485701</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1331835841493594</v>
+        <v>0.1316041249774904</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1579289065687643</v>
+        <v>0.1572488125189635</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>438</v>
@@ -5017,19 +5017,19 @@
         <v>477180</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>438048</v>
+        <v>438665</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>523485</v>
+        <v>524864</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1341837849739252</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1231796962061122</v>
+        <v>0.1233532940319823</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1472046500135902</v>
+        <v>0.1475924201428227</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>897</v>
@@ -5038,19 +5038,19 @@
         <v>973762</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>911775</v>
+        <v>911574</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1032901</v>
+        <v>1045834</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1396781815051562</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1307865812237667</v>
+        <v>0.1307578210808114</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1481611070730542</v>
+        <v>0.1500163293113458</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>168771</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>142200</v>
+        <v>143883</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>197960</v>
+        <v>199033</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04941617191475725</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04163609065496882</v>
+        <v>0.04212884299865645</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.0579627204140145</v>
+        <v>0.05827677442729272</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>207</v>
@@ -5088,19 +5088,19 @@
         <v>230529</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>199197</v>
+        <v>200213</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>260679</v>
+        <v>261093</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.06482504302195943</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05601440940195165</v>
+        <v>0.05630031726022116</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07330324202901298</v>
+        <v>0.07341969210137392</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>359</v>
@@ -5109,19 +5109,19 @@
         <v>399300</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>361111</v>
+        <v>361048</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>440011</v>
+        <v>442555</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.05727628854576735</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05179843065471446</v>
+        <v>0.05178938541120014</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06311601957851326</v>
+        <v>0.0634808202248329</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>37476</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>25844</v>
+        <v>25295</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>52949</v>
+        <v>51519</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01097298008115581</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.007567055813125675</v>
+        <v>0.007406307350512582</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01550333846011203</v>
+        <v>0.01508479557731591</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>44</v>
@@ -5159,19 +5159,19 @@
         <v>51019</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>36439</v>
+        <v>38016</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>68030</v>
+        <v>68805</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01434657829106845</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01024659279941092</v>
+        <v>0.01069021607743387</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01913012701815755</v>
+        <v>0.01934796593639037</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>78</v>
@@ -5180,19 +5180,19 @@
         <v>88495</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>70303</v>
+        <v>70549</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>108877</v>
+        <v>109729</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.01269386379882713</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01008442864226446</v>
+        <v>0.01011961842588241</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01561747939370206</v>
+        <v>0.01573976748477456</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>300828</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>272460</v>
+        <v>276090</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>324994</v>
+        <v>326924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4465035666408744</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4043988292235053</v>
+        <v>0.4097853941586836</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.482371244985561</v>
+        <v>0.4852355752757143</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>266</v>
@@ -5545,19 +5545,19 @@
         <v>268276</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>243822</v>
+        <v>241667</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>293180</v>
+        <v>291452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3998985186395162</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3634467377610709</v>
+        <v>0.3602352635665337</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4370224944560349</v>
+        <v>0.4344460974983888</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>555</v>
@@ -5566,19 +5566,19 @@
         <v>569104</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>529863</v>
+        <v>534234</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>604023</v>
+        <v>605362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4232509974194202</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3940672110041521</v>
+        <v>0.3973177981113083</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4492207240770895</v>
+        <v>0.4502168320971655</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>239489</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>217068</v>
+        <v>216611</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>263723</v>
+        <v>266293</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3554612680810033</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3221825119493403</v>
+        <v>0.3215041878605545</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3914303275382212</v>
+        <v>0.3952443915198567</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>260</v>
@@ -5616,19 +5616,19 @@
         <v>259326</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>234533</v>
+        <v>235601</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284424</v>
+        <v>284283</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3865583849844192</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.349600901235983</v>
+        <v>0.3511929808289553</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4239706031000434</v>
+        <v>0.423759758603774</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>493</v>
@@ -5637,19 +5637,19 @@
         <v>498815</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>464608</v>
+        <v>463758</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>533564</v>
+        <v>536571</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3709764943149353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3455358697196098</v>
+        <v>0.344903614569436</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3968194476180745</v>
+        <v>0.3990558493691587</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>101007</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>83111</v>
+        <v>85055</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>121037</v>
+        <v>122224</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1499195218984217</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1233578814435923</v>
+        <v>0.1262429789403534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1796490646271633</v>
+        <v>0.1814102919108926</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>98</v>
@@ -5687,19 +5687,19 @@
         <v>99762</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>83056</v>
+        <v>81038</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118821</v>
+        <v>121376</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1487084591844786</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1238054652373493</v>
+        <v>0.1207967323129374</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1771180474771023</v>
+        <v>0.1809262940935473</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>196</v>
@@ -5708,19 +5708,19 @@
         <v>200769</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>173745</v>
+        <v>175284</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>226281</v>
+        <v>226943</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1493152886491251</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1292164653167634</v>
+        <v>0.1303610914543559</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.168288788619495</v>
+        <v>0.1687806973815647</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>28567</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19504</v>
+        <v>18553</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40348</v>
+        <v>40116</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04240058122607874</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02894825565064861</v>
+        <v>0.02753695362831503</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05988620577239372</v>
+        <v>0.05954154329480769</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -5758,19 +5758,19 @@
         <v>36293</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>25906</v>
+        <v>25424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>50816</v>
+        <v>50334</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05409913576912018</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03861634857520728</v>
+        <v>0.03789751035358577</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07574699393573775</v>
+        <v>0.07502849325757398</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>60</v>
@@ -5779,19 +5779,19 @@
         <v>64860</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>51398</v>
+        <v>49644</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82263</v>
+        <v>82042</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.04823731911110571</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.03822580551495976</v>
+        <v>0.03692106502561054</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06117999033518082</v>
+        <v>0.0610157159471503</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>3850</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>996</v>
+        <v>1014</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8733</v>
+        <v>9673</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.005715062153621882</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.001477690783951804</v>
+        <v>0.001504613644026179</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01296220394136224</v>
+        <v>0.01435680565975048</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -5829,19 +5829,19 @@
         <v>7202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2978</v>
+        <v>2923</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>14269</v>
+        <v>13837</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01073550142246578</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.004439735353690169</v>
+        <v>0.004357439328070948</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02126976919157121</v>
+        <v>0.02062640404942289</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -5850,19 +5850,19 @@
         <v>11052</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5756</v>
+        <v>5895</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>19356</v>
+        <v>18718</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.008219900505413671</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.004280816892168026</v>
+        <v>0.004383931586780472</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0143950411684269</v>
+        <v>0.01392064221728046</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>449699</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>413588</v>
+        <v>417310</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>480356</v>
+        <v>485266</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4398333175233352</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4045144732944166</v>
+        <v>0.4081547375278521</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4698174190189735</v>
+        <v>0.4746198134799025</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>388</v>
@@ -5975,19 +5975,19 @@
         <v>402311</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>370701</v>
+        <v>369550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>437213</v>
+        <v>431802</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3857570608937734</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3554474187347151</v>
+        <v>0.3543436251472136</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.419222750841406</v>
+        <v>0.4140345012760879</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>803</v>
@@ -5996,19 +5996,19 @@
         <v>852010</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>799600</v>
+        <v>805529</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>894201</v>
+        <v>899875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4125270521713358</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3871510714374111</v>
+        <v>0.390021811870071</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4329547681928989</v>
+        <v>0.4357020636826996</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>388851</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>357792</v>
+        <v>357649</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>421834</v>
+        <v>421142</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.380320015987918</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3499426584813543</v>
+        <v>0.3498028232402653</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4125795497670368</v>
+        <v>0.4119025240458083</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>408</v>
@@ -6046,19 +6046,19 @@
         <v>438987</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>408416</v>
+        <v>408069</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>470900</v>
+        <v>471126</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4209238431529165</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.391610718737712</v>
+        <v>0.391277712323795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4515235437846918</v>
+        <v>0.451740638270746</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>774</v>
@@ -6067,19 +6067,19 @@
         <v>827838</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>779397</v>
+        <v>781925</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>876744</v>
+        <v>874314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4008232635863854</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3773690837289225</v>
+        <v>0.378593040800899</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4245024281762324</v>
+        <v>0.4233258779384204</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>132861</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>111283</v>
+        <v>111441</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>156184</v>
+        <v>154221</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1299460070052987</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1088419826431146</v>
+        <v>0.1089956929187492</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1527574170313962</v>
+        <v>0.1508378035896389</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>127</v>
@@ -6117,19 +6117,19 @@
         <v>138994</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>118244</v>
+        <v>117182</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>161834</v>
+        <v>163313</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1332747248598731</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1133787331851463</v>
+        <v>0.1123599728128502</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1551750576409165</v>
+        <v>0.1565928782704233</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>250</v>
@@ -6138,19 +6138,19 @@
         <v>271855</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>241875</v>
+        <v>237904</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>302947</v>
+        <v>303290</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1316268713750646</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1171113261067321</v>
+        <v>0.1151885439448916</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1466812158228514</v>
+        <v>0.1468473748523677</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>48891</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>35429</v>
+        <v>36206</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>63139</v>
+        <v>63047</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0478184356013799</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03465126544117839</v>
+        <v>0.0354121063168253</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.06175370333382051</v>
+        <v>0.06166347721336758</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>44</v>
@@ -6188,19 +6188,19 @@
         <v>51293</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>37394</v>
+        <v>38120</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>69892</v>
+        <v>69392</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04918219087576739</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.03585519395040784</v>
+        <v>0.03655186758757335</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06701628197293302</v>
+        <v>0.06653631288242318</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>89</v>
@@ -6209,19 +6209,19 @@
         <v>100184</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>80854</v>
+        <v>79800</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>122223</v>
+        <v>123417</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0485070754170519</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03914788878481561</v>
+        <v>0.03863765038965504</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.05917796108333688</v>
+        <v>0.05975637888522815</v>
       </c>
     </row>
     <row r="14">
@@ -6241,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8099</v>
+        <v>8799</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.002082223882068134</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.007921174138081312</v>
+        <v>0.008606099602435897</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>10</v>
@@ -6259,19 +6259,19 @@
         <v>11328</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5035</v>
+        <v>5663</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>19523</v>
+        <v>22119</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01086218021766965</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004827708345569028</v>
+        <v>0.005430451511269447</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01871972717736378</v>
+        <v>0.02120881269614285</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>12</v>
@@ -6280,19 +6280,19 @@
         <v>13457</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7202</v>
+        <v>6868</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>24161</v>
+        <v>23285</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.00651573745016228</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.003487240274278699</v>
+        <v>0.0033252807652168</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01169822784280467</v>
+        <v>0.01127411835271053</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>311081</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>285687</v>
+        <v>282350</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>340043</v>
+        <v>338988</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4107398588216843</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.377210528324173</v>
+        <v>0.3728037977021283</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4489795865796298</v>
+        <v>0.4475873692131413</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>304</v>
@@ -6405,19 +6405,19 @@
         <v>317633</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291440</v>
+        <v>290092</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>344107</v>
+        <v>346036</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4065616204982274</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3730358857911028</v>
+        <v>0.371309670152407</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4404473729735148</v>
+        <v>0.442916738981169</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>589</v>
@@ -6426,19 +6426,19 @@
         <v>628714</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>586522</v>
+        <v>592102</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>666580</v>
+        <v>672300</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.408618291024105</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3811967768510285</v>
+        <v>0.3848230218204998</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4332285418977911</v>
+        <v>0.4369461211286517</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>278920</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>250637</v>
+        <v>251904</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>304742</v>
+        <v>306459</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3682749811374302</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3309322147894318</v>
+        <v>0.3326049340454218</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4023702800680737</v>
+        <v>0.4046369972103556</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>265</v>
@@ -6476,19 +6476,19 @@
         <v>283888</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>258404</v>
+        <v>256420</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>310325</v>
+        <v>310494</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3633697185028957</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3307506825602219</v>
+        <v>0.3282109475926364</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.39720746218604</v>
+        <v>0.3974245397271073</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>524</v>
@@ -6497,19 +6497,19 @@
         <v>562808</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>525459</v>
+        <v>523382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>604065</v>
+        <v>600993</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3657842550374679</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3415100036938475</v>
+        <v>0.3401601081699145</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3925979404512108</v>
+        <v>0.3906017550056836</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>126197</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>105247</v>
+        <v>105908</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>147149</v>
+        <v>148505</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1666255334365449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1389636913121007</v>
+        <v>0.1398374637773939</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1942897281801153</v>
+        <v>0.1960808937373793</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>132</v>
@@ -6547,19 +6547,19 @@
         <v>143824</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>120706</v>
+        <v>123426</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>165919</v>
+        <v>166342</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1840903285265398</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1545007998567017</v>
+        <v>0.1579825160816442</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.212372353467797</v>
+        <v>0.2129128258184859</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>246</v>
@@ -6568,19 +6568,19 @@
         <v>270020</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>235132</v>
+        <v>239769</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>301816</v>
+        <v>301734</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1754935644069748</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.152818924171896</v>
+        <v>0.1558324584892646</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1961581830008144</v>
+        <v>0.1961053322387214</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>33600</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>23206</v>
+        <v>23143</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>48007</v>
+        <v>48694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04436423676714579</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0306397037490177</v>
+        <v>0.03055732080129507</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06338621522512052</v>
+        <v>0.06429322159130954</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -6618,19 +6618,19 @@
         <v>31876</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>22033</v>
+        <v>21761</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>45556</v>
+        <v>45206</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04079989505551016</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02820193025159421</v>
+        <v>0.02785391479095965</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05831018751386383</v>
+        <v>0.05786294117834499</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>58</v>
@@ -6639,19 +6639,19 @@
         <v>65476</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>50371</v>
+        <v>49782</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>83901</v>
+        <v>83232</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04255438486077628</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03273724636810214</v>
+        <v>0.03235473251003418</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05452966036366741</v>
+        <v>0.05409500947034383</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>7570</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2819</v>
+        <v>3238</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17594</v>
+        <v>17072</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009995389837194793</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003721584029628459</v>
+        <v>0.004275212307724613</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02323103590930787</v>
+        <v>0.02254074058702255</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>4</v>
@@ -6689,19 +6689,19 @@
         <v>4046</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1044</v>
+        <v>982</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10026</v>
+        <v>9943</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.005178437416827011</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.001336643293242462</v>
+        <v>0.001256370389216554</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01283266553351479</v>
+        <v>0.01272667416773685</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>10</v>
@@ -6710,19 +6710,19 @@
         <v>11616</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5927</v>
+        <v>5691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>21960</v>
+        <v>21738</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007549504670675993</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003851932135025614</v>
+        <v>0.003698638707426972</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01427226447118557</v>
+        <v>0.01412814318473179</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>390402</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>361763</v>
+        <v>359735</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>418911</v>
+        <v>420072</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4174061086960052</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.386785815734816</v>
+        <v>0.3846174305625278</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4478870425742191</v>
+        <v>0.4491285931709214</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>412</v>
@@ -6835,19 +6835,19 @@
         <v>442958</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>410733</v>
+        <v>410516</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>476865</v>
+        <v>477214</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.42437927169998</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3935053883588329</v>
+        <v>0.3932975365582262</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4568635956766422</v>
+        <v>0.4571979708886467</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>800</v>
@@ -6856,19 +6856,19 @@
         <v>833360</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>788202</v>
+        <v>789104</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>876285</v>
+        <v>876027</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4210837905050406</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3982660020961004</v>
+        <v>0.3987219235445787</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4427730239858956</v>
+        <v>0.4426426903071534</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>340355</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>313867</v>
+        <v>309859</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>370884</v>
+        <v>370767</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3638974059098763</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3355767298488803</v>
+        <v>0.3312918284175769</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3965375665432712</v>
+        <v>0.3964128439074336</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>357</v>
@@ -6906,19 +6906,19 @@
         <v>382709</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>350772</v>
+        <v>351102</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>415639</v>
+        <v>417175</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.366657009108101</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3360594397191626</v>
+        <v>0.3363753888053418</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3982062757248862</v>
+        <v>0.3996775719884536</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>700</v>
@@ -6927,19 +6927,19 @@
         <v>723064</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>681171</v>
+        <v>679415</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>766607</v>
+        <v>764739</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3653528347413093</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3441851015916667</v>
+        <v>0.3432976391003238</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3873544357707573</v>
+        <v>0.3864103956571854</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>151329</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>129292</v>
+        <v>131331</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173699</v>
+        <v>177227</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1617966697945586</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.138234752499446</v>
+        <v>0.1404152473519228</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1857141580786816</v>
+        <v>0.1894862373533347</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>131</v>
@@ -6977,19 +6977,19 @@
         <v>148432</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>126374</v>
+        <v>126227</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>172227</v>
+        <v>175071</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1422067898684355</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1210731853916985</v>
+        <v>0.1209327337929467</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1650031982732154</v>
+        <v>0.1677279017011832</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>280</v>
@@ -6998,19 +6998,19 @@
         <v>299762</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>267275</v>
+        <v>268150</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>338461</v>
+        <v>332039</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1514648669951082</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1350499695293107</v>
+        <v>0.1354921181933316</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1710189531420027</v>
+        <v>0.16777423117749</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>40623</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>29325</v>
+        <v>29654</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>54341</v>
+        <v>55350</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04343265457262915</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03135302296923767</v>
+        <v>0.03170558186644761</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05809962930895835</v>
+        <v>0.05917834114765743</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>52</v>
@@ -7048,19 +7048,19 @@
         <v>61745</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>46216</v>
+        <v>45488</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>82115</v>
+        <v>78400</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.05915559120228781</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04427731806055143</v>
+        <v>0.04357991122075901</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07867071847685411</v>
+        <v>0.07511184652867335</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>91</v>
@@ -7069,19 +7069,19 @@
         <v>102368</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>83671</v>
+        <v>82561</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>123120</v>
+        <v>124306</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05172501171307625</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04227756777590804</v>
+        <v>0.04171697143171538</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06221062791307151</v>
+        <v>0.06280974642335682</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>12596</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6002</v>
+        <v>6484</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21264</v>
+        <v>23146</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01346716102693077</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.006417479320481162</v>
+        <v>0.006932461796337431</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02273495370877831</v>
+        <v>0.02474672646818665</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>7</v>
@@ -7119,19 +7119,19 @@
         <v>7934</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3271</v>
+        <v>3133</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15308</v>
+        <v>15358</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.007601338121195628</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.00313407717361307</v>
+        <v>0.003001554868204038</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01466588735911253</v>
+        <v>0.01471358524250459</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -7140,19 +7140,19 @@
         <v>20530</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>13208</v>
+        <v>12579</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>32186</v>
+        <v>34126</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.0103734960454656</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006673833028793907</v>
+        <v>0.006355825207042734</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0162629257116721</v>
+        <v>0.01724348548111956</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>1452010</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1389168</v>
+        <v>1392721</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1512778</v>
+        <v>1512132</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.4284675853460052</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.409923628683659</v>
+        <v>0.4109721923630408</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4463994322306441</v>
+        <v>0.4462087947902507</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>1370</v>
@@ -7265,19 +7265,19 @@
         <v>1431178</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1370351</v>
+        <v>1365818</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1495459</v>
+        <v>1486372</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4044225845438643</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.3872342927107951</v>
+        <v>0.385953326290901</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4225873418728455</v>
+        <v>0.4200193516002426</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2747</v>
@@ -7286,19 +7286,19 @@
         <v>2883188</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2796345</v>
+        <v>2798206</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2963450</v>
+        <v>2966497</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.4161848185583492</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4036490698371011</v>
+        <v>0.4039176746475631</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.4277704638086932</v>
+        <v>0.4282102865484757</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>1247615</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1190829</v>
+        <v>1191228</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1304081</v>
+        <v>1304371</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3681533227643138</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3513966265239332</v>
+        <v>0.3515144569584668</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3848156388861175</v>
+        <v>0.3849014058619999</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1290</v>
@@ -7336,19 +7336,19 @@
         <v>1364910</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1306383</v>
+        <v>1308871</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1425166</v>
+        <v>1428288</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3856968033567824</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3691580810992721</v>
+        <v>0.36986128439103</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.402723849712545</v>
+        <v>0.4036060985393029</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2491</v>
@@ -7357,19 +7357,19 @@
         <v>2612525</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2533791</v>
+        <v>2533697</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2700333</v>
+        <v>2697448</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3771149561006651</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.3657497316832989</v>
+        <v>0.3657361853115886</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.3897899006948966</v>
+        <v>0.3893735029496345</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>511394</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>470487</v>
+        <v>465931</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>555540</v>
+        <v>548732</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1509050530574929</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1388341543686204</v>
+        <v>0.1374896784174473</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1639320553099213</v>
+        <v>0.1619231331958931</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>488</v>
@@ -7407,19 +7407,19 @@
         <v>531012</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>488550</v>
+        <v>486361</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>576190</v>
+        <v>578904</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1500536306259021</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1380546498420401</v>
+        <v>0.1374360314412604</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.1628199957305876</v>
+        <v>0.1635868348389281</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>972</v>
@@ -7428,19 +7428,19 @@
         <v>1042406</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>985580</v>
+        <v>983243</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1105962</v>
+        <v>1101671</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1504701259285207</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1422673781526981</v>
+        <v>0.1419299799859165</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.1596442499282888</v>
+        <v>0.1590248930174805</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>151681</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>128723</v>
+        <v>129282</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>179492</v>
+        <v>182084</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.04475887566140258</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.03798436766545869</v>
+        <v>0.03814927760978273</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.05296560390827457</v>
+        <v>0.05373031625521225</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>157</v>
@@ -7478,19 +7478,19 @@
         <v>181207</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>153499</v>
+        <v>153906</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>209065</v>
+        <v>211343</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05120540829295427</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04337576197430357</v>
+        <v>0.04349089083321969</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.05907773213788861</v>
+        <v>0.05972132443102899</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>298</v>
@@ -7499,19 +7499,19 @@
         <v>332888</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>298783</v>
+        <v>296986</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>374230</v>
+        <v>370581</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.04805192013055949</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04312896868824679</v>
+        <v>0.04286959803620771</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0540197079896625</v>
+        <v>0.05349286064982588</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>26145</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>16344</v>
+        <v>16898</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>38492</v>
+        <v>38410</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007715163170785558</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.004822816056446287</v>
+        <v>0.004986493894680157</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01135853123506843</v>
+        <v>0.0113341337677325</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>28</v>
@@ -7549,19 +7549,19 @@
         <v>30510</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>20930</v>
+        <v>21476</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>44829</v>
+        <v>43795</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.008621573180496972</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.005914265001820325</v>
+        <v>0.00606879386109117</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.01266774701015635</v>
+        <v>0.01237565060709317</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>51</v>
@@ -7570,19 +7570,19 @@
         <v>56656</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>42338</v>
+        <v>41411</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>74848</v>
+        <v>71956</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008178179281905463</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.006111503255319126</v>
+        <v>0.005977608024387879</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01080421629098152</v>
+        <v>0.01038679217421323</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>368374</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>342064</v>
+        <v>339416</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>399204</v>
+        <v>395694</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.533956195809965</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4958194681655806</v>
+        <v>0.4919809820582285</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5786444208039397</v>
+        <v>0.5735556676401502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>588</v>
@@ -7935,19 +7935,19 @@
         <v>376101</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>353505</v>
+        <v>351406</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>397794</v>
+        <v>396493</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5141528136708619</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4832625489331753</v>
+        <v>0.4803929454269596</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5438090393600051</v>
+        <v>0.542030370327183</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>954</v>
@@ -7956,19 +7956,19 @@
         <v>744474</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>707135</v>
+        <v>706870</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>782726</v>
+        <v>780101</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5237647124969141</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4974947730608699</v>
+        <v>0.4973087942588142</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5506760540776021</v>
+        <v>0.5488295257384725</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>202031</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>177731</v>
+        <v>179420</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>226333</v>
+        <v>227249</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2928430624890766</v>
+        <v>0.2928430624890767</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2576192777018428</v>
+        <v>0.2600679327758279</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3280675870996334</v>
+        <v>0.3293961968552125</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>444</v>
@@ -8006,19 +8006,19 @@
         <v>243543</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>224826</v>
+        <v>222991</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266467</v>
+        <v>263410</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.3329376570785895</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3073506109194868</v>
+        <v>0.3048420472439036</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3642774467510827</v>
+        <v>0.3600980246354784</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>681</v>
@@ -8027,19 +8027,19 @@
         <v>445574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>411443</v>
+        <v>414281</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>476932</v>
+        <v>480156</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3134770829221675</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2894650726739305</v>
+        <v>0.2914618648779104</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3355392702358248</v>
+        <v>0.3378071888456283</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>66953</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>52549</v>
+        <v>52254</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83584</v>
+        <v>85092</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09704822774497317</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07616934923812257</v>
+        <v>0.07574239854760685</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1211548646373225</v>
+        <v>0.1233397377562927</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>111</v>
@@ -8077,19 +8077,19 @@
         <v>58677</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>47650</v>
+        <v>48435</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>69693</v>
+        <v>71363</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.08021450875017024</v>
+        <v>0.08021450875017022</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06514040119199276</v>
+        <v>0.06621358401198463</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09527464119228475</v>
+        <v>0.09755708299888866</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>184</v>
@@ -8098,19 +8098,19 @@
         <v>125630</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>106564</v>
+        <v>108791</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>146514</v>
+        <v>147830</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08838503248736292</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07497162785438738</v>
+        <v>0.07653853991205553</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1030778706267</v>
+        <v>0.1040035439968907</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>36689</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>25989</v>
+        <v>26575</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>49381</v>
+        <v>49808</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.05318077370953864</v>
+        <v>0.05318077370953865</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.0376714269273469</v>
+        <v>0.03852009448611472</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07157720333290601</v>
+        <v>0.07219656459748648</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>76</v>
@@ -8148,19 +8148,19 @@
         <v>43382</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>33782</v>
+        <v>33835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54815</v>
+        <v>54568</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05930555999900623</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04618164997208413</v>
+        <v>0.0462542333397883</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07493577999052886</v>
+        <v>0.07459720797353141</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>115</v>
@@ -8169,19 +8169,19 @@
         <v>80071</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>66149</v>
+        <v>65743</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>97984</v>
+        <v>96282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05633279374463446</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04653815666997524</v>
+        <v>0.04625268612518357</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06893507388784248</v>
+        <v>0.0677380608805276</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>15848</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8361</v>
+        <v>8545</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>29187</v>
+        <v>29966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02297174024644661</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01211957964399064</v>
+        <v>0.01238604362230602</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04230657443885842</v>
+        <v>0.04343488080517787</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>17</v>
@@ -8219,19 +8219,19 @@
         <v>9794</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>6041</v>
+        <v>5708</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>16285</v>
+        <v>14975</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01338946050137209</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008257820338329105</v>
+        <v>0.007803402811510085</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.0222628904605404</v>
+        <v>0.02047215369692978</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -8240,19 +8240,19 @@
         <v>25642</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>16465</v>
+        <v>16500</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>38851</v>
+        <v>40889</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01804037834892101</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01158367721738781</v>
+        <v>0.01160834739276041</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02733316615497918</v>
+        <v>0.02876718700263158</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>549809</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>513894</v>
+        <v>511785</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>583521</v>
+        <v>580890</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5251039395499828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4908027712586483</v>
+        <v>0.4887887343326057</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5573006423716612</v>
+        <v>0.5547882891216183</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>679</v>
@@ -8365,19 +8365,19 @@
         <v>498226</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>468589</v>
+        <v>468122</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>528185</v>
+        <v>526996</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4654761162509244</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4377876718292057</v>
+        <v>0.4373513971175769</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4934657677568947</v>
+        <v>0.4923551954119214</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1150</v>
@@ -8386,19 +8386,19 @@
         <v>1048035</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1002794</v>
+        <v>998501</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1094289</v>
+        <v>1093324</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4949618297000162</v>
+        <v>0.4949618297000163</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4735956166636034</v>
+        <v>0.4715684391997323</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5168065914123205</v>
+        <v>0.5163509756026547</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>357012</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326075</v>
+        <v>323429</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>388751</v>
+        <v>390190</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3409704997625846</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3114227413855591</v>
+        <v>0.3088957186119238</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3712824546220416</v>
+        <v>0.3726569421556558</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>570</v>
@@ -8436,19 +8436,19 @@
         <v>390697</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>362972</v>
+        <v>364047</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>421711</v>
+        <v>421946</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3650157463737394</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3391125897704982</v>
+        <v>0.3401176684846615</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3939909190615486</v>
+        <v>0.3942104043155252</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>921</v>
@@ -8457,19 +8457,19 @@
         <v>747710</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>704681</v>
+        <v>704706</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>794196</v>
+        <v>788330</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3531254707915943</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3328040062643339</v>
+        <v>0.332815968212146</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3750800578287767</v>
+        <v>0.37230960332937</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>79143</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>62928</v>
+        <v>62230</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>99217</v>
+        <v>95837</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.07558720368395645</v>
+        <v>0.07558720368395647</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06010008853259203</v>
+        <v>0.05943371061385426</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09475888655099902</v>
+        <v>0.09153034006339471</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>142</v>
@@ -8507,19 +8507,19 @@
         <v>93340</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79764</v>
+        <v>77770</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>111099</v>
+        <v>109785</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.08720435722180193</v>
+        <v>0.08720435722180192</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.07452085029146935</v>
+        <v>0.07265775949650984</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1037959779011413</v>
+        <v>0.1025685183834356</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>221</v>
@@ -8528,19 +8528,19 @@
         <v>172483</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>149539</v>
+        <v>149898</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>197517</v>
+        <v>198932</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.08145972256369888</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0706236954458158</v>
+        <v>0.07079322279940205</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09328236237449611</v>
+        <v>0.09395061580779535</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>48020</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>34599</v>
+        <v>34641</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>62699</v>
+        <v>65696</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04586238382409361</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0330441887362008</v>
+        <v>0.03308472753664008</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05988173959149896</v>
+        <v>0.06274394354203534</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>96</v>
@@ -8578,19 +8578,19 @@
         <v>69063</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>57274</v>
+        <v>56659</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>86295</v>
+        <v>86221</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.06452302001363695</v>
+        <v>0.06452302001363694</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05350894354834673</v>
+        <v>0.05293448806310029</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08062268088231957</v>
+        <v>0.08055386566768562</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>143</v>
@@ -8599,19 +8599,19 @@
         <v>117083</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>97045</v>
+        <v>97558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>138785</v>
+        <v>140612</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0552954121450244</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.04583194439518785</v>
+        <v>0.04607424525937322</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.06554474060156228</v>
+        <v>0.06640761954428621</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>13063</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7477</v>
+        <v>7418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>22370</v>
+        <v>21776</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01247597317938245</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.007141319411275228</v>
+        <v>0.007085022639527332</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02136470934067305</v>
+        <v>0.02079744642696704</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>28</v>
@@ -8649,19 +8649,19 @@
         <v>19032</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12642</v>
+        <v>12457</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29617</v>
+        <v>30170</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01778076013989736</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01181083350547332</v>
+        <v>0.01163797616270982</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02767062119449706</v>
+        <v>0.02818704468481832</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>43</v>
@@ -8670,19 +8670,19 @@
         <v>32095</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>22859</v>
+        <v>22645</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46866</v>
+        <v>45361</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01515756479966612</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01079563301181573</v>
+        <v>0.01069453206218072</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02213348598733551</v>
+        <v>0.02142291328790187</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>417431</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>384470</v>
+        <v>382422</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>450653</v>
+        <v>448382</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5197919067625019</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4787479137048677</v>
+        <v>0.476198552990417</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5611612646686767</v>
+        <v>0.5583323480235056</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>489</v>
@@ -8795,19 +8795,19 @@
         <v>385754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>360394</v>
+        <v>359573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>412094</v>
+        <v>413102</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4749152889078101</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.443693161106743</v>
+        <v>0.4426826810031888</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5073436530800922</v>
+        <v>0.5085841702238353</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>825</v>
@@ -8816,19 +8816,19 @@
         <v>803185</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>758652</v>
+        <v>756710</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>846059</v>
+        <v>846541</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.497226000880976</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4696570813198197</v>
+        <v>0.4684548647094816</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5237676427716023</v>
+        <v>0.5240664619701008</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>266375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>237705</v>
+        <v>236597</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>297784</v>
+        <v>295655</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3316943081016399</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2959946578629696</v>
+        <v>0.2946142943347851</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3708061290961772</v>
+        <v>0.3681547091613511</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>378</v>
@@ -8866,19 +8866,19 @@
         <v>283240</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>258037</v>
+        <v>259297</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>307149</v>
+        <v>308945</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.3487064223188513</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3176782733608487</v>
+        <v>0.3192292158749689</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3781418717416838</v>
+        <v>0.3803522535384066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>613</v>
@@ -8887,19 +8887,19 @@
         <v>549615</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>510958</v>
+        <v>509751</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>593238</v>
+        <v>587456</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3402487354765902</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3163173468618289</v>
+        <v>0.3155702732155756</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3672545032858466</v>
+        <v>0.3636748128626818</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>70544</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>52977</v>
+        <v>53726</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>93654</v>
+        <v>93179</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.08784206369451258</v>
+        <v>0.08784206369451256</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.06596795861291666</v>
+        <v>0.06690086681822027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.116619513378644</v>
+        <v>0.1160285079810272</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>106</v>
@@ -8937,19 +8937,19 @@
         <v>86415</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>71255</v>
+        <v>71059</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>104968</v>
+        <v>107106</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1063882935385852</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.08772473434904371</v>
+        <v>0.08748319367594333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1292295791034328</v>
+        <v>0.1318615269045897</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>162</v>
@@ -8958,19 +8958,19 @@
         <v>156958</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>132586</v>
+        <v>131117</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>185808</v>
+        <v>185176</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.09716791080878512</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.08207945849217077</v>
+        <v>0.08117009385583102</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1150277770891547</v>
+        <v>0.114636381249258</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>40602</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>29321</v>
+        <v>30177</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>53751</v>
+        <v>55467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05055859871637988</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0365109169118863</v>
+        <v>0.03757746281726311</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06693142503751008</v>
+        <v>0.069068015057437</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>58</v>
@@ -9008,19 +9008,19 @@
         <v>42393</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>32314</v>
+        <v>32094</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54878</v>
+        <v>54709</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05219134871375578</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03978233938433289</v>
+        <v>0.03951214251658229</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.06756235132477427</v>
+        <v>0.06735416442835421</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>98</v>
@@ -9029,19 +9029,19 @@
         <v>82995</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>68464</v>
+        <v>67058</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>100437</v>
+        <v>100165</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05137961608645324</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.04238384272646206</v>
+        <v>0.04151327653738979</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.06217706507019953</v>
+        <v>0.06200886227259788</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>8122</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4005</v>
+        <v>4002</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16423</v>
+        <v>15593</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01011312272496594</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.004987490855913461</v>
+        <v>0.00498329391565484</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02045007073915593</v>
+        <v>0.01941634304643641</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>16</v>
@@ -9079,19 +9079,19 @@
         <v>14457</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>8010</v>
+        <v>8449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>25915</v>
+        <v>26603</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01779864652099762</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009861384934324884</v>
+        <v>0.01040142470594221</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03190527160972195</v>
+        <v>0.03275221367889407</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>25</v>
@@ -9100,19 +9100,19 @@
         <v>22579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14266</v>
+        <v>14307</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35622</v>
+        <v>34100</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01397773674719547</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.00883186896637418</v>
+        <v>0.00885713648258442</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0220523851880203</v>
+        <v>0.02111005169009853</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>521385</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>490271</v>
+        <v>484865</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>553317</v>
+        <v>550816</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5266180879891765</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.495192526716519</v>
+        <v>0.4897317312493573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5588715535569478</v>
+        <v>0.5563452854201166</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>780</v>
@@ -9225,19 +9225,19 @@
         <v>573420</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>540726</v>
+        <v>545111</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>604558</v>
+        <v>604827</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.514594670843605</v>
+        <v>0.5145946708436049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4852547385580309</v>
+        <v>0.4891901025891067</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5425387337070762</v>
+        <v>0.5427797991519324</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1277</v>
@@ -9246,19 +9246,19 @@
         <v>1094804</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1049081</v>
+        <v>1050494</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1137646</v>
+        <v>1143195</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.5202514237653468</v>
+        <v>0.5202514237653469</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4985236340463963</v>
+        <v>0.4991953086368309</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5406097772003761</v>
+        <v>0.5432470181236936</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>277063</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>249520</v>
+        <v>248015</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>304099</v>
+        <v>307423</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.2798436844187726</v>
+        <v>0.2798436844187727</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2520244590972158</v>
+        <v>0.2505040872988776</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3071515338120678</v>
+        <v>0.3105091186166407</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>450</v>
@@ -9296,19 +9296,19 @@
         <v>312283</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>287936</v>
+        <v>284452</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>339507</v>
+        <v>337762</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2802467783262073</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2583978673093246</v>
+        <v>0.2552710876497356</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3046781854909306</v>
+        <v>0.3031120488570203</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>756</v>
@@ -9317,19 +9317,19 @@
         <v>589345</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>552636</v>
+        <v>549613</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>631310</v>
+        <v>628692</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2800571315218912</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2626126759775277</v>
+        <v>0.261176552682261</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2999989221357667</v>
+        <v>0.2987545276953021</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>99952</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82010</v>
+        <v>83451</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>120883</v>
+        <v>123843</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1009549335857952</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.08283290494319266</v>
+        <v>0.08428858878464343</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1220959117927193</v>
+        <v>0.12508593457945</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>156</v>
@@ -9367,19 +9367,19 @@
         <v>107991</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>92812</v>
+        <v>92093</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>126983</v>
+        <v>124875</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.09691242987834939</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.08329080281763226</v>
+        <v>0.08264548257276275</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1139565168808261</v>
+        <v>0.112064945691991</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>260</v>
@@ -9388,19 +9388,19 @@
         <v>207942</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>182035</v>
+        <v>181537</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>234271</v>
+        <v>235645</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.09881433882664441</v>
+        <v>0.09881433882664439</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.08650331508318189</v>
+        <v>0.08626654066499423</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.1113255084546796</v>
+        <v>0.1119785505207482</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>70321</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>53776</v>
+        <v>55507</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>85587</v>
+        <v>88762</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.07102680196082602</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05431610625386708</v>
+        <v>0.05606456781419793</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.08644588189206995</v>
+        <v>0.0896533059065323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>123</v>
@@ -9438,19 +9438,19 @@
         <v>85441</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>70598</v>
+        <v>72687</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>101221</v>
+        <v>101807</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.07667575380404344</v>
+        <v>0.07667575380404346</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06335592700257267</v>
+        <v>0.06523009460727426</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.09083691684116303</v>
+        <v>0.09136267713467247</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>198</v>
@@ -9459,19 +9459,19 @@
         <v>155762</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>134227</v>
+        <v>134837</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>178354</v>
+        <v>180143</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.07401804639382779</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06378495136272579</v>
+        <v>0.06407470690140459</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.0847539603246427</v>
+        <v>0.08560383062900898</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>21342</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13484</v>
+        <v>13685</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>31931</v>
+        <v>31221</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02155649204542963</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01361933839954633</v>
+        <v>0.01382272963107307</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03225132109372212</v>
+        <v>0.03153472562447687</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -9509,19 +9509,19 @@
         <v>35179</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>25749</v>
+        <v>25549</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46906</v>
+        <v>46618</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03157036714779486</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02310794607135933</v>
+        <v>0.02292795192647283</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.04209452864790716</v>
+        <v>0.04183593376834766</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>71</v>
@@ -9530,19 +9530,19 @@
         <v>56522</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>44479</v>
+        <v>43397</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>70948</v>
+        <v>70846</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02685905949228975</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02113628178599692</v>
+        <v>0.02062204760935655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03371468962963709</v>
+        <v>0.03366596785274011</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>1856999</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1794044</v>
+        <v>1792561</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1923889</v>
+        <v>1925706</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.5260501746854076</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5082163277137558</v>
+        <v>0.5077961698298531</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.5449989384543081</v>
+        <v>0.5455136932502996</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>2536</v>
@@ -9655,19 +9655,19 @@
         <v>1833500</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>1780211</v>
+        <v>1779289</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1887765</v>
+        <v>1887561</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.4917626318808284</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.4774700776511139</v>
+        <v>0.4772227388031179</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.5063172620202213</v>
+        <v>0.5062623399564981</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4206</v>
@@ -9676,19 +9676,19 @@
         <v>3690499</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>3611885</v>
+        <v>3605357</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>3777375</v>
+        <v>3776256</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.5084379341691903</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.4976074207938478</v>
+        <v>0.4967079959801213</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.5204067685947006</v>
+        <v>0.5202526622747566</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>1102481</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1040850</v>
+        <v>1049475</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>1160662</v>
+        <v>1161497</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3123105969770644</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2948518574043716</v>
+        <v>0.2972949071777156</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3287921838662449</v>
+        <v>0.3290286056916756</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1842</v>
@@ -9726,19 +9726,19 @@
         <v>1229762</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>1179897</v>
+        <v>1175098</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1276624</v>
+        <v>1277285</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.3298342516653072</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.3164599693131224</v>
+        <v>0.3151728337508644</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3424032129450838</v>
+        <v>0.3425805358457578</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2971</v>
@@ -9747,19 +9747,19 @@
         <v>2332243</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>2260278</v>
+        <v>2254006</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>2406520</v>
+        <v>2406170</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.3213118492059425</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.311397167703834</v>
+        <v>0.3105330668346482</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.331544956258228</v>
+        <v>0.3314967258922757</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>316592</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>280442</v>
+        <v>279467</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>359521</v>
+        <v>354513</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.08968406828146525</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.07944349056710052</v>
+        <v>0.07916726038299569</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1018450458085986</v>
+        <v>0.1004264661381428</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>515</v>
@@ -9797,19 +9797,19 @@
         <v>346422</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>315892</v>
+        <v>316032</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>380155</v>
+        <v>380950</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.09291376870374488</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.08472528218173719</v>
+        <v>0.08476281201650554</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.101961439928532</v>
+        <v>0.102174488419102</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>827</v>
@@ -9818,19 +9818,19 @@
         <v>663014</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>621569</v>
+        <v>614597</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>716003</v>
+        <v>711395</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.09134304574032592</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.08563315573060286</v>
+        <v>0.08467273797315612</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.09864328243901989</v>
+        <v>0.09800855086284829</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>195633</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>169005</v>
+        <v>169492</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>222582</v>
+        <v>226523</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.05541873330089067</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.04787573232005848</v>
+        <v>0.04801357633784119</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.06305308393281986</v>
+        <v>0.06416935110604223</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>353</v>
@@ -9868,19 +9868,19 @@
         <v>240278</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>217276</v>
+        <v>216644</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>267924</v>
+        <v>268113</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.06444494286655994</v>
+        <v>0.06444494286655993</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.05827550376263813</v>
+        <v>0.05810591828645588</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.07185989820964613</v>
+        <v>0.07191059946138928</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>554</v>
@@ -9889,19 +9889,19 @@
         <v>435911</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>398271</v>
+        <v>392785</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>473820</v>
+        <v>472748</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.06005516276818738</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05486956490521628</v>
+        <v>0.05411370035289789</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.06527796322015016</v>
+        <v>0.06513016978669663</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>58375</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44018</v>
+        <v>44456</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>77327</v>
+        <v>76718</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01653642675517207</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.01246949347508367</v>
+        <v>0.01259334986012784</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02190518965620353</v>
+        <v>0.02173254511338312</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>108</v>
@@ -9939,19 +9939,19 @@
         <v>78462</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>63716</v>
+        <v>63752</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>94439</v>
+        <v>98539</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.02104440488355939</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.01708927972611321</v>
+        <v>0.01709898456275809</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02532945085756601</v>
+        <v>0.02642914796599002</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>170</v>
@@ -9960,19 +9960,19 @@
         <v>136837</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>117006</v>
+        <v>114511</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>161814</v>
+        <v>160528</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.01885200811635381</v>
+        <v>0.01885200811635382</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.01611990206498394</v>
+        <v>0.01577611786107567</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.02229300618773326</v>
+        <v>0.022115806799911</v>
       </c>
     </row>
     <row r="33">
